--- a/biology/Médecine/Entérocoque/Entérocoque.xlsx
+++ b/biology/Médecine/Entérocoque/Entérocoque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rocoque</t>
+          <t>Entérocoque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enterococcus
-Les entérocoques sont des coques à métabolisme aéro-anaérobie, dites cocci à Gram positif, présentant habituellement sous forme de chaînettes. Ce sont des pathogènes opportunistes causant des septicémies, infections urinaires, ou abdominales d'origine intestinale. Ils sont la cause de plus de 10 % des infections nosocomiales[2].
-Pendant très longtemps, les entérocoques ont été classés au sein du genre Streptococcus, jusqu'en 1984, où une analyse du génome indiqua qu'il était plus approprié de créer le genre Enterococcus. Cet amalgame est notamment dû au fait que les entérocoques possèdent l'antigène de paroi D, partagé par des bactéries du genre Streptococcus (Streptococcus gallolyticus, Streptococcus infantarius…)[3].
+Les entérocoques sont des coques à métabolisme aéro-anaérobie, dites cocci à Gram positif, présentant habituellement sous forme de chaînettes. Ce sont des pathogènes opportunistes causant des septicémies, infections urinaires, ou abdominales d'origine intestinale. Ils sont la cause de plus de 10 % des infections nosocomiales.
+Pendant très longtemps, les entérocoques ont été classés au sein du genre Streptococcus, jusqu'en 1984, où une analyse du génome indiqua qu'il était plus approprié de créer le genre Enterococcus. Cet amalgame est notamment dû au fait que les entérocoques possèdent l'antigène de paroi D, partagé par des bactéries du genre Streptococcus (Streptococcus gallolyticus, Streptococcus infantarius…).
 Le genre Enterococcus et le sous-genre Streptococcus D peuvent être différenciés par la salinité d'un milieu de culture. En effet, les Enterococcus peuvent être cultivées sur un milieu hypersalé (6,5 % Nacl).
 Les deux principales espèces sont Enterococcus faecalis et Enterococcus faecium.
 Ils sont assez résistants aux acides, ce qui leur permet de passer la barrière stomacale.
 Dans l'eau potable, ce sont des indicateurs de contamination fécale, comme les colibacilles.
-Certaines souches sont antibiorésistantes. Leur résistance à certains antibiotiques et leur profil de virulence varie selon les souches isolées. Les patients peuvent aussi y être plus ou moins vulnérables[4].
+Certaines souches sont antibiorésistantes. Leur résistance à certains antibiotiques et leur profil de virulence varie selon les souches isolées. Les patients peuvent aussi y être plus ou moins vulnérables.
 </t>
         </is>
       </c>
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rocoque</t>
+          <t>Entérocoque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme leur nom le rappelle (entérique + coque), ils font partie de la flore commensale et se retrouvent notamment dans le tractus digestif et génito-urinaire (dont urètre).
 </t>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rocoque</t>
+          <t>Entérocoque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,10 +563,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'écologie des entérocoques est différente de celle des streptocoques et leur adaptation au milieu intestinal, où ils sont normalement commensaux minoritaires, leur confère un certain nombre de propriétés différentes des streptocoques. Ils sont notamment plus résistants dans les milieux extérieurs. Comme pour les colibacilles, leur présence dans une eau de boisson ou un aliment est un indice de pollution fécale.
-L'émergence de souches antibiorésistantes a probablement été favorisée par l'usage des antibiotiques, chez l'homme, mais aussi en usage vétérinaire et par l'agriculture et l'industrie agro-alimentaire (vancomycine et autres glycopeptides). Par exemple, l'usage d'avoparcine (glycopeptide très utilisé en Europe mais non aux États-Unis ni au Canada) durant plus de 20 ans comme facteur de croissance dans la supplémentation alimentaire d'animaux d'élevage a pu sélectionner des entérocoques de type VANA résistant à la fois à la vancomycine et à l'avoparcine. L'isolement d'entérocoques VANA d'excréments de cochons et poulets d'élevages allemands et danois utilisant l'avoparcine, alors que les entérocoques isolés dans des fermes n'utilisant pas d'antibiotiques en supplémentation animale sont sensibles aux glycopeptides, étaye cette hypothèse[5].
+L'émergence de souches antibiorésistantes a probablement été favorisée par l'usage des antibiotiques, chez l'homme, mais aussi en usage vétérinaire et par l'agriculture et l'industrie agro-alimentaire (vancomycine et autres glycopeptides). Par exemple, l'usage d'avoparcine (glycopeptide très utilisé en Europe mais non aux États-Unis ni au Canada) durant plus de 20 ans comme facteur de croissance dans la supplémentation alimentaire d'animaux d'élevage a pu sélectionner des entérocoques de type VANA résistant à la fois à la vancomycine et à l'avoparcine. L'isolement d'entérocoques VANA d'excréments de cochons et poulets d'élevages allemands et danois utilisant l'avoparcine, alors que les entérocoques isolés dans des fermes n'utilisant pas d'antibiotiques en supplémentation animale sont sensibles aux glycopeptides, étaye cette hypothèse.
 </t>
         </is>
       </c>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rocoque</t>
+          <t>Entérocoque</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Diagnostic bactériologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les entérocoques sont des cocci à Gram positifs caractérisés par un certain polymorphisme : coques souvent de dimensions inégales, en diplococoques ou courtes chaînettes. Ils sont immobiles et sans capsule.
 Ce ne sont pas des bactéries exigeantes et ils peuvent pousser sur des géloses ordinaires. Leur culture est plus aisée et plus abondante que celle des streptocoques. Ils présentent un trouble en bouillon et des colonies légèrement opalescentes de plus ou moins 1,5 mm sur gélose. Sur gélose au sang, les colonies peuvent être non hémolytiques ou α-hémolytiques. Sur un milieu bile-esculine, les entérocoques se développent en hydrolysant l'esculine (halo noir).
@@ -606,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rocoque</t>
+          <t>Entérocoque</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,7 +642,9 @@
           <t>Pathogénie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les deux espèces les plus fréquemment rencontrées en pathologie humaine sont : Enterococcus faecalis et Enterococcus faecium qui peuvent être à l'origine d'infections chez les patients fragilisés. Ce sont des bactéries pathogènes opportunistes.
 Les affections les plus courantes sont :
@@ -641,7 +661,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rocoque</t>
+          <t>Entérocoque</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -659,15 +679,17 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les infections bactériennes (bactériémies) dues à des entérocoques sont réputées pour être presque toujours des infections d'origine endogène, ce qui demande des stratégies adaptées de contrôle du risque nosocomial[6]. En milieu hospitalier, ces bactéries peuvent être responsables d'infections nosocomiales graves[7], dont la première fut détectée en France au milieu des années 1980[8].
-À titre d'exemple une étude prospective faite au CHU de Nîmes [7] en 2004-2005, a porté sur 33 patients d'âge médian de 68 ans (3-96). Elle a détecté 33 souches d'entérocoques, nosocomiales dans 60,6 % des cas.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les infections bactériennes (bactériémies) dues à des entérocoques sont réputées pour être presque toujours des infections d'origine endogène, ce qui demande des stratégies adaptées de contrôle du risque nosocomial. En milieu hospitalier, ces bactéries peuvent être responsables d'infections nosocomiales graves, dont la première fut détectée en France au milieu des années 1980.
+À titre d'exemple une étude prospective faite au CHU de Nîmes  en 2004-2005, a porté sur 33 patients d'âge médian de 68 ans (3-96). Elle a détecté 33 souches d'entérocoques, nosocomiales dans 60,6 % des cas.
 Les infections faisaient suite à une intervention chirurgicale dans 54,5 % des cas, et avec un pronostic vital engagé dans 63,6 % des cas (7 de ces patients sont morts durant leur hospitalisation, soit 21,2 % mais aucune épidémie n'a été induite). La porte d'entrée principale semblait digestive, avec aussi un nombre non négligeable d'infections liées aux cathéters.
-Les facteurs de comorbidités étaient cardiovasculaires et digestifs[7].
+Les facteurs de comorbidités étaient cardiovasculaires et digestifs.
 Les infections étaient généralement monomicrobiennes (à 75,8 %), dues à Enterococus faecalis dans 87,9 % des cas.
-Chez ces patients, les isolats d' E. faecalis étaient tués par l'amoxicilline et les glycopeptides mais antibiorésistantes à la norfloxacine, à l'érythromycine et à la pristinamycine. Idem pour Enterococus faecium (avec aussi un cas de résistance importante à l'amoxicilline) [7].
-E. faecalis possédait un maximum de gènes de virulence contrairement à E. faecium [7].
+Chez ces patients, les isolats d' E. faecalis étaient tués par l'amoxicilline et les glycopeptides mais antibiorésistantes à la norfloxacine, à l'érythromycine et à la pristinamycine. Idem pour Enterococus faecium (avec aussi un cas de résistance importante à l'amoxicilline) .
+E. faecalis possédait un maximum de gènes de virulence contrairement à E. faecium .
 </t>
         </is>
       </c>
@@ -678,7 +700,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rocoque</t>
+          <t>Entérocoque</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -696,7 +718,9 @@
           <t>Diagnostic biologique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le diagnostic se fait par mise en culture de prélèvements de natures diverses :
 urine,
@@ -713,7 +737,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rocoque</t>
+          <t>Entérocoque</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -733,18 +757,20 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antibiothérapie
-L'une des difficultés du traitement vient de la résistance des entérocoques à beaucoup d'antibiotiques [9],[10].
+          <t>Antibiothérapie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'une des difficultés du traitement vient de la résistance des entérocoques à beaucoup d'antibiotiques ,.
 Les entérocoques sont résistants aux céphalosporines.
 Ils tolèrent les pénicillines, même à fortes doses (CMB/CMI &gt; 32 mg/L).
-Si l'antibiogramme montre l'amoxicilline comme active sur les entérocoques, cela ne signifie pas que cet antibiotique sera bactéricide. La concentration minimale inhibitrice (CMI) des pénicillines est 10 à 100 fois plus élevée pour les entérocoques que pour les autres streptocoques en raison d’une faible affinité de la PLP pour ces bêtalactamines. De plus, les entérocoques sont considérés comme tolérants aux bêtalactamines, car ces germes ne sont tués que par des concentrations minimales bactéricides (CMB) d’antibiotiques nettement supérieures à la CMI (CMB/CMI &gt; 32)[11].
+Si l'antibiogramme montre l'amoxicilline comme active sur les entérocoques, cela ne signifie pas que cet antibiotique sera bactéricide. La concentration minimale inhibitrice (CMI) des pénicillines est 10 à 100 fois plus élevée pour les entérocoques que pour les autres streptocoques en raison d’une faible affinité de la PLP pour ces bêtalactamines. De plus, les entérocoques sont considérés comme tolérants aux bêtalactamines, car ces germes ne sont tués que par des concentrations minimales bactéricides (CMB) d’antibiotiques nettement supérieures à la CMI (CMB/CMI &gt; 32).
 Dans les infections sévères (endocardites, bactériémies…), il est nécessaire de recourir à une association d'antibiotiques :
 Ampicilline / gentamicine ou
 Vancomycine / gentamicine.
 En France, les entérocoques résistants à la vancomycine semblent encore rares.
-Phagothérapie
-La phagothérapie est utilisée sur l'homme dans certains pays comme la Russie et la Géorgie. En Russie on trouve en pharmacie un cocktail bactériophagique spécifiquement conçu contre les streptocoques et d'autres cocktails plus généraux qui incluent des bactériophages anti streptocoques[12],[13].
-En France la phagothérapie n'est possible que sous Autorisation Temporaire d'Utilisation délivrée par l'ANSM. Devant l'absence de solution par le circuit classique de soins, des organisations de patients se sont montées en France pour faciliter l'accès aux bactériophagiques étrangers[14],[15],[16],[17].
 </t>
         </is>
       </c>
@@ -755,7 +781,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rocoque</t>
+          <t>Entérocoque</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -770,13 +796,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Qualité de l'eau</t>
+          <t>Traitement</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">De nombreux pays ont édicté des réglementations drastiques concernant l'eau du robinet ou en bouteille, et dans les eaux de baignades. Par exemple, l'État de Hawaii aux États-Unis, impose un taux de moins de 7 bactéries formant colonie par 100 ml d'eau, taux au-dessus duquel l'État peut afficher des avertissements invitant le public à rester hors de l'océan[18].
- En 2004, Enterococcus spp.a pris la place du groupe des coliformes thermotolérants (fécaux) pour la nouvelle norme fédérale pour la qualité des eaux de baignade des plages publiques, car cet indicateur est jugé représentatif des nombreux autres agents pathogènes fécaux et notamment trouvés dans les eaux usées[19] (égouts, qui peuvent fuir ou déborder, notamment dans les zones d'affaissements miniers, et après les tremblements de terre. Dans certains pays les eaux usées, rejetées dans le milieu naturel sans traitement par station d'épuration, sont un facteur majeur de contamination.
+          <t>Phagothérapie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phagothérapie est utilisée sur l'homme dans certains pays comme la Russie et la Géorgie. En Russie on trouve en pharmacie un cocktail bactériophagique spécifiquement conçu contre les streptocoques et d'autres cocktails plus généraux qui incluent des bactériophages anti streptocoques,.
+En France la phagothérapie n'est possible que sous Autorisation Temporaire d'Utilisation délivrée par l'ANSM. Devant l'absence de solution par le circuit classique de soins, des organisations de patients se sont montées en France pour faciliter l'accès aux bactériophagiques étrangers.
 </t>
         </is>
       </c>
@@ -787,7 +819,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rocoque</t>
+          <t>Entérocoque</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -802,15 +834,16 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Prévention, précaution</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Un dépistage systématique permet de limiter le risque en amont[20].
-Des mesures d'hygiène stricte doivent être prises dans les hôpitaux et autour des patients à risques, notamment dans les unités de soins intensifs (dont néonatales[21]), et par le personnel soignant pour limiter le risque de transmission manuportée d’entérocoques antibiorésistants[22],[23]. Le nettoyage des mains est très important, les solutions hydro-alcooliques semblent efficacement limiter les risques[24].
-Certains matériaux et matériels peuvent favoriser ou au contraire diminuer la survie de la bactérie dans le milieu ambiant[25]
-La modélisation du risque nosocomial permet de mieux le gérer[26]</t>
+          <t>Qualité de l'eau</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux pays ont édicté des réglementations drastiques concernant l'eau du robinet ou en bouteille, et dans les eaux de baignades. Par exemple, l'État de Hawaii aux États-Unis, impose un taux de moins de 7 bactéries formant colonie par 100 ml d'eau, taux au-dessus duquel l'État peut afficher des avertissements invitant le public à rester hors de l'océan.
+ En 2004, Enterococcus spp.a pris la place du groupe des coliformes thermotolérants (fécaux) pour la nouvelle norme fédérale pour la qualité des eaux de baignade des plages publiques, car cet indicateur est jugé représentatif des nombreux autres agents pathogènes fécaux et notamment trouvés dans les eaux usées (égouts, qui peuvent fuir ou déborder, notamment dans les zones d'affaissements miniers, et après les tremblements de terre. Dans certains pays les eaux usées, rejetées dans le milieu naturel sans traitement par station d'épuration, sont un facteur majeur de contamination.
+</t>
         </is>
       </c>
     </row>
@@ -820,7 +853,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rocoque</t>
+          <t>Entérocoque</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -835,13 +868,53 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Prévention, précaution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Un dépistage systématique permet de limiter le risque en amont.
+Des mesures d'hygiène stricte doivent être prises dans les hôpitaux et autour des patients à risques, notamment dans les unités de soins intensifs (dont néonatales), et par le personnel soignant pour limiter le risque de transmission manuportée d’entérocoques antibiorésistants,. Le nettoyage des mains est très important, les solutions hydro-alcooliques semblent efficacement limiter les risques.
+Certains matériaux et matériels peuvent favoriser ou au contraire diminuer la survie de la bactérie dans le milieu ambiant
+La modélisation du risque nosocomial permet de mieux le gérer</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Entérocoque</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ent%C3%A9rocoque</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Selon la LPSN[1]
-En avril 2021 les espèces suivantes sont recensées :
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Selon la LPSN[1]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>En avril 2021 les espèces suivantes sont recensées :
 Enterococcus faecalis (Andrewes &amp; Horder 1906) Schleifer &amp; Kilpper-Bälz 1984 : espèce type de description du genre, reclassement de Streptococcus faecalis
 Enterococcus alcedinis Frolková et al. 2013
 Enterococcus aquimarinus Švec et al. 2005
